--- a/2020/PC.xlsx
+++ b/2020/PC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erik fredericks\AppData\Local\Packages\CanonicalGroupLimited.Ubuntu18.04onWindows_79rhkp1fndgsc\LocalState\rootfs\home\erik\searchbasedsoftwaretesting.github.io\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmrs3/Systems/searchbasedsoftwaretesting.github.io/2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105D86B1-08DF-EA47-A6BB-4D60CC8E4910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25100" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,9 +120,6 @@
     <t>spanichella@gmail.com</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>clegoues@cs.cmu.edu</t>
   </si>
   <si>
@@ -147,13 +145,16 @@
   </si>
   <si>
     <t>antoniol@ieee.org</t>
+  </si>
+  <si>
+    <t>Jie.Zhang@ucl.ac.uk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +164,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,10 +203,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -206,8 +216,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -485,21 +497,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -510,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -518,7 +530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -526,15 +538,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -542,7 +554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -550,15 +562,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -566,7 +578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -574,7 +586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -582,7 +594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -590,7 +602,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -598,23 +610,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -622,7 +634,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -630,40 +642,43 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{EFB7AE07-DA02-2844-8476-317D4C0A9536}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
 </worksheet>
 </file>
--- a/2020/PC.xlsx
+++ b/2020/PC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmrs3/Systems/searchbasedsoftwaretesting.github.io/2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erik fredericks\AppData\Local\Packages\CanonicalGroupLimited.Ubuntu18.04onWindows_79rhkp1fndgsc\LocalState\rootfs\home\erik\searchbasedsoftwaretesting.github.io\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105D86B1-08DF-EA47-A6BB-4D60CC8E4910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25100" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25104" windowHeight="14940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>PC Member</t>
   </si>
@@ -148,13 +147,25 @@
   </si>
   <si>
     <t>Jie.Zhang@ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Giovani Guizzo</t>
+  </si>
+  <si>
+    <t>giovaniguizzo@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +183,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,7 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -217,6 +235,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -497,21 +516,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -522,7 +541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -530,7 +549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -538,7 +557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -546,23 +565,29 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -570,15 +595,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -586,7 +614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -594,23 +622,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -618,7 +652,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -626,15 +660,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -642,7 +679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -650,7 +687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -658,7 +695,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -666,7 +703,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -674,9 +711,17 @@
         <v>37</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" xr:uid="{EFB7AE07-DA02-2844-8476-317D4C0A9536}"/>
+    <hyperlink ref="B18" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
